--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Il12rb1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838038377044671</v>
+        <v>1.297418666666666</v>
       </c>
       <c r="H2">
-        <v>0.838038377044671</v>
+        <v>3.892256</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.69432950988618</v>
+        <v>0.162136</v>
       </c>
       <c r="N2">
-        <v>1.69432950988618</v>
+        <v>0.486408</v>
       </c>
       <c r="O2">
-        <v>0.7443081816896755</v>
+        <v>0.0598694021675715</v>
       </c>
       <c r="P2">
-        <v>0.7443081816896755</v>
+        <v>0.0598694021675715</v>
       </c>
       <c r="Q2">
-        <v>1.419913152643907</v>
+        <v>0.2103582729386666</v>
       </c>
       <c r="R2">
-        <v>1.419913152643907</v>
+        <v>1.893224456448</v>
       </c>
       <c r="S2">
-        <v>0.7443081816896755</v>
+        <v>0.0598694021675715</v>
       </c>
       <c r="T2">
-        <v>0.7443081816896755</v>
+        <v>0.0598694021675715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838038377044671</v>
+        <v>1.297418666666666</v>
       </c>
       <c r="H3">
-        <v>0.838038377044671</v>
+        <v>3.892256</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,158 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.582052171207038</v>
+        <v>1.694965</v>
       </c>
       <c r="N3">
-        <v>0.582052171207038</v>
+        <v>5.084895</v>
       </c>
       <c r="O3">
-        <v>0.2556918183103244</v>
+        <v>0.6258729785177741</v>
       </c>
       <c r="P3">
-        <v>0.2556918183103244</v>
+        <v>0.6258729785177741</v>
       </c>
       <c r="Q3">
-        <v>0.4877820569136731</v>
+        <v>2.199079230346666</v>
       </c>
       <c r="R3">
-        <v>0.4877820569136731</v>
+        <v>19.79171307312</v>
       </c>
       <c r="S3">
-        <v>0.2556918183103244</v>
+        <v>0.6258729785177741</v>
       </c>
       <c r="T3">
-        <v>0.2556918183103244</v>
+        <v>0.6258729785177741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.297418666666666</v>
+      </c>
+      <c r="H4">
+        <v>3.892256</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.6978413333333333</v>
+      </c>
+      <c r="N4">
+        <v>2.093524</v>
+      </c>
+      <c r="O4">
+        <v>0.2576808570242738</v>
+      </c>
+      <c r="P4">
+        <v>0.2576808570242737</v>
+      </c>
+      <c r="Q4">
+        <v>0.9053923722382221</v>
+      </c>
+      <c r="R4">
+        <v>8.148531350143999</v>
+      </c>
+      <c r="S4">
+        <v>0.2576808570242738</v>
+      </c>
+      <c r="T4">
+        <v>0.2576808570242737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.297418666666666</v>
+      </c>
+      <c r="H5">
+        <v>3.892256</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.153219</v>
+      </c>
+      <c r="N5">
+        <v>0.459657</v>
+      </c>
+      <c r="O5">
+        <v>0.05657676229038053</v>
+      </c>
+      <c r="P5">
+        <v>0.05657676229038053</v>
+      </c>
+      <c r="Q5">
+        <v>0.198789190688</v>
+      </c>
+      <c r="R5">
+        <v>1.789102716192</v>
+      </c>
+      <c r="S5">
+        <v>0.05657676229038053</v>
+      </c>
+      <c r="T5">
+        <v>0.05657676229038053</v>
       </c>
     </row>
   </sheetData>
